--- a/doc/pos_restaurent.xlsx
+++ b/doc/pos_restaurent.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working project\pos_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working project\pos_project\post_restaurant\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -203,6 +203,42 @@
   </si>
   <si>
     <t>purchase_id</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>permissions</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>permission_groups</t>
+  </si>
+  <si>
+    <t>permission_group_id</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>permissions (array() of permission id)</t>
+  </si>
+  <si>
+    <t>Users and Role</t>
+  </si>
+  <si>
+    <t>last_logged_in</t>
+  </si>
+  <si>
+    <t>grand_total</t>
   </si>
 </sst>
 </file>
@@ -277,16 +313,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,15 +649,16 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -632,7 +669,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="8"/>
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
@@ -641,7 +678,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="8"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -650,7 +687,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="8"/>
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -659,7 +696,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="8"/>
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -668,7 +705,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="8"/>
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -677,13 +714,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
       <c r="E11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -808,7 +845,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -819,7 +856,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
+      <c r="A55" s="8"/>
       <c r="C55" s="3" t="s">
         <v>0</v>
       </c>
@@ -828,7 +865,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
+      <c r="A56" s="8"/>
       <c r="C56" t="s">
         <v>1</v>
       </c>
@@ -837,7 +874,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
+      <c r="A57" s="8"/>
       <c r="C57" t="s">
         <v>29</v>
       </c>
@@ -846,7 +883,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
+      <c r="A58" s="8"/>
       <c r="C58" t="s">
         <v>11</v>
       </c>
@@ -855,7 +892,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
+      <c r="A59" s="8"/>
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -864,70 +901,70 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
+      <c r="A60" s="8"/>
       <c r="E60" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
+      <c r="A61" s="8"/>
       <c r="E61" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
+      <c r="A62" s="8"/>
       <c r="E62" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
+      <c r="A63" s="8"/>
       <c r="E63" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
+      <c r="A64" s="8"/>
       <c r="E64" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
+      <c r="A65" s="8"/>
       <c r="E65" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
+      <c r="A66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
+      <c r="A67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
+      <c r="A68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
+      <c r="A69" s="8"/>
       <c r="C69" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
+      <c r="A70" s="8"/>
       <c r="C70" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
+      <c r="A71" s="8"/>
       <c r="C71" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
+      <c r="A72" s="8"/>
       <c r="C72" t="s">
         <v>14</v>
       </c>
@@ -938,7 +975,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -949,7 +986,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="9"/>
       <c r="C78" s="3" t="s">
         <v>0</v>
       </c>
@@ -958,7 +995,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
+      <c r="A79" s="9"/>
       <c r="C79" t="s">
         <v>25</v>
       </c>
@@ -967,7 +1004,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
+      <c r="A80" s="9"/>
       <c r="C80" t="s">
         <v>43</v>
       </c>
@@ -976,7 +1013,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="A81" s="9"/>
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -985,7 +1022,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="9"/>
       <c r="C82" t="s">
         <v>44</v>
       </c>
@@ -994,7 +1031,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="9"/>
       <c r="C83" t="s">
         <v>47</v>
       </c>
@@ -1003,55 +1040,58 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
+      <c r="A84" s="9"/>
       <c r="C84" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="9"/>
       <c r="C85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="C86" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="C87" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
-      <c r="C86" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="C87" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="C88" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-    </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="9"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
+      <c r="A90" s="9"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+      <c r="A91" s="9"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
+      <c r="A92" s="9"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
+      <c r="A93" s="9"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
+      <c r="A94" s="9"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
+      <c r="A95" s="9"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -1062,7 +1102,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
+      <c r="A98" s="8"/>
       <c r="C98" s="3" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1111,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
+      <c r="A99" s="8"/>
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -1080,7 +1120,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
+      <c r="A100" s="8"/>
       <c r="C100" t="s">
         <v>25</v>
       </c>
@@ -1089,7 +1129,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
+      <c r="A101" s="8"/>
       <c r="C101" t="s">
         <v>56</v>
       </c>
@@ -1098,7 +1138,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
+      <c r="A102" s="8"/>
       <c r="C102" t="s">
         <v>55</v>
       </c>
@@ -1107,57 +1147,147 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
+      <c r="A103" s="8"/>
       <c r="C103" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
+      <c r="A104" s="8"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
+      <c r="A105" s="8"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
+      <c r="A106" s="8"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
+      <c r="A107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
+      <c r="A108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
+      <c r="A109" s="7"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
+      <c r="A110" s="7"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
+      <c r="A111" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
+      <c r="A112" s="8"/>
+      <c r="C112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+      <c r="E114" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="C116" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+      <c r="C117" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="E119" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="E120" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+      <c r="E121" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
+      <c r="E122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="C123" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="8"/>
+      <c r="C124" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="A54:A72"/>
     <mergeCell ref="A77:A95"/>
     <mergeCell ref="A97:A108"/>
+    <mergeCell ref="A111:A124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/pos_restaurent.xlsx
+++ b/doc/pos_restaurent.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -163,12 +163,6 @@
     <t>table_id</t>
   </si>
   <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>deposit</t>
-  </si>
-  <si>
     <t>payment_id</t>
   </si>
   <si>
@@ -238,7 +232,43 @@
     <t>last_logged_in</t>
   </si>
   <si>
-    <t>grand_total</t>
+    <t>total_due</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>discounts</t>
+  </si>
+  <si>
+    <t>amount (%)</t>
+  </si>
+  <si>
+    <t>outlet (array() of outlets_id)</t>
+  </si>
+  <si>
+    <t>category (array() of category_id)</t>
+  </si>
+  <si>
+    <t>discription</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>taxes</t>
+  </si>
+  <si>
+    <t>rate (%)</t>
+  </si>
+  <si>
+    <t>taxes (array() of tax_id)</t>
+  </si>
+  <si>
+    <t>service_charge</t>
+  </si>
+  <si>
+    <t>service_chage</t>
   </si>
 </sst>
 </file>
@@ -637,17 +667,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
   </cols>
@@ -772,77 +802,136 @@
         <v>25</v>
       </c>
     </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>26</v>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="C42" t="s">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
@@ -933,11 +1022,14 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
@@ -982,7 +1074,7 @@
         <v>42</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1027,40 +1119,46 @@
         <v>44</v>
       </c>
       <c r="E82" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="C83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>75</v>
+      </c>
+      <c r="E84" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="C85" t="s">
-        <v>51</v>
+        <v>79</v>
+      </c>
+      <c r="E85" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="C86" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="C87" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,13 +1190,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1211,10 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="C99" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E99" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,7 +1229,7 @@
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="C101" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E101" t="s">
         <v>32</v>
@@ -1140,7 +1238,7 @@
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="C102" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E102" t="s">
         <v>33</v>
@@ -1175,13 +1273,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -1205,10 +1303,10 @@
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="C114" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E114" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -1220,13 +1318,13 @@
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="C116" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="C117" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -1238,7 +1336,7 @@
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="E119" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -1250,7 +1348,7 @@
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="E121" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -1262,10 +1360,10 @@
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="C123" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E123" t="s">
         <v>64</v>
-      </c>
-      <c r="E123" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -1279,13 +1377,53 @@
         <v>1</v>
       </c>
     </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="8"/>
+      <c r="C129" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="8"/>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="8"/>
+      <c r="C131" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="8"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A128:A135"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="A54:A72"/>
     <mergeCell ref="A77:A95"/>
     <mergeCell ref="A97:A108"/>
     <mergeCell ref="A111:A124"/>
+    <mergeCell ref="A40:A51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/pos_restaurent.xlsx
+++ b/doc/pos_restaurent.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -247,9 +247,6 @@
     <t>outlet (array() of outlets_id)</t>
   </si>
   <si>
-    <t>category (array() of category_id)</t>
-  </si>
-  <si>
     <t>discription</t>
   </si>
   <si>
@@ -268,7 +265,67 @@
     <t>service_charge</t>
   </si>
   <si>
-    <t>service_chage</t>
+    <t>contact_name</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>classifies</t>
+  </si>
+  <si>
+    <t>classify_id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>classifies (array() of category_id)</t>
+  </si>
+  <si>
+    <t>item_sets</t>
+  </si>
+  <si>
+    <t>item_set_id</t>
+  </si>
+  <si>
+    <t>item_set_details</t>
+  </si>
+  <si>
+    <t>order_detail_id</t>
+  </si>
+  <si>
+    <t>item_ids</t>
+  </si>
+  <si>
+    <t>item_set_order_details</t>
+  </si>
+  <si>
+    <t>tax_id</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>order_detail_taxs</t>
+  </si>
+  <si>
+    <t>total_due_khr</t>
+  </si>
+  <si>
+    <t>calulate_order</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>System Global Option</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -336,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -351,6 +408,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,19 +727,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -688,7 +749,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -699,7 +760,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
@@ -708,7 +769,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="10"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -717,7 +778,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -726,7 +787,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -735,7 +796,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10"/>
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -744,13 +805,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="E11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -834,7 +895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -842,7 +903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>22</v>
       </c>
@@ -850,7 +911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>23</v>
       </c>
@@ -858,7 +919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>24</v>
       </c>
@@ -866,564 +927,714 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="C55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="C56" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="C57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="C59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="C55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="C56" t="s">
+      <c r="G67" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="C68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="C69" t="s">
         <v>1</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E69" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="C57" t="s">
+      <c r="G69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="C70" t="s">
         <v>29</v>
       </c>
-      <c r="E57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="C59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="E60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="E61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="E62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="E63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="E64" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="E65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="E66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="C69" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="C70" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>83</v>
+      </c>
+      <c r="G70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="C71" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="E73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="E74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="E75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="E76" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="E78" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="E79" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="E80" t="s">
+        <v>77</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="C82" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="C83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="C84" t="s">
+        <v>39</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="C85" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+      <c r="G85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="C78" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="C79" t="s">
+      <c r="G90" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+      <c r="C91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
+      <c r="C92" t="s">
         <v>25</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E92" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="C80" t="s">
+      <c r="G92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="9"/>
+      <c r="C93" t="s">
         <v>43</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E93" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
-      <c r="C81" t="s">
+      <c r="G93" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="C94" t="s">
         <v>14</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E94" t="s">
+        <v>87</v>
+      </c>
+      <c r="G94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+      <c r="C95" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="C82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="C96" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="C83" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="C84" t="s">
-        <v>75</v>
-      </c>
-      <c r="E84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="C85" t="s">
-        <v>79</v>
-      </c>
-      <c r="E85" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="9"/>
+      <c r="E97" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="C86" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="9"/>
+      <c r="C98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+      <c r="C99" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="C87" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="C100" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="C88" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="9"/>
+      <c r="C101" t="s">
+        <v>95</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="9"/>
+      <c r="C102" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="E102" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="9"/>
+      <c r="E103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
+      <c r="E104" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="9"/>
+      <c r="E105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="9"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="9"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="C98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="C99" t="s">
-        <v>52</v>
-      </c>
-      <c r="E99" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="C100" t="s">
-        <v>25</v>
-      </c>
-      <c r="E100" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="C101" t="s">
-        <v>54</v>
-      </c>
-      <c r="E101" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="C102" t="s">
-        <v>53</v>
-      </c>
-      <c r="E102" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-      <c r="C103" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
-    </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>61</v>
+      <c r="A111" s="8"/>
+      <c r="C111" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
-      <c r="C112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>0</v>
+      <c r="C112" t="s">
+        <v>52</v>
+      </c>
+      <c r="E112" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="C113" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E113" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="C114" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E114" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="E115" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="C116" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
-      <c r="C117" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
-      <c r="E119" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
-      <c r="E120" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
-      <c r="E121" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
-      <c r="E122" t="s">
+      <c r="A122" s="7"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="7"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+      <c r="C125" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="8"/>
+      <c r="C126" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
-      <c r="C123" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E123" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
-      <c r="C124" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
+      <c r="E126" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="8"/>
+      <c r="C127" t="s">
+        <v>58</v>
+      </c>
+      <c r="E127" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="8"/>
+      <c r="C128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="C129" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="C130" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="C131" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E132" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E133" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
+      <c r="E135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="C136" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E136" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="C137" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+      <c r="C142" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+      <c r="C144" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="8"/>
+      <c r="C145" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="8"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="8"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="10"/>
+      <c r="C153" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="10"/>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="10"/>
+      <c r="C155" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="10"/>
+      <c r="C156" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="10"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="10"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="10"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="10"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="10"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="10"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A128:A135"/>
+  <mergeCells count="3">
+    <mergeCell ref="A152:A163"/>
     <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A54:A72"/>
-    <mergeCell ref="A77:A95"/>
-    <mergeCell ref="A97:A108"/>
-    <mergeCell ref="A111:A124"/>
-    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="A53:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/pos_restaurent.xlsx
+++ b/doc/pos_restaurent.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working project\pos_project\post_restaurant\doc\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -163,9 +163,6 @@
     <t>table_id</t>
   </si>
   <si>
-    <t>payment_id</t>
-  </si>
-  <si>
     <t>order_details</t>
   </si>
   <si>
@@ -220,12 +217,6 @@
     <t>permission_group_id</t>
   </si>
   <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>permissions (array() of permission id)</t>
-  </si>
-  <si>
     <t>Users and Role</t>
   </si>
   <si>
@@ -262,9 +253,6 @@
     <t>taxes (array() of tax_id)</t>
   </si>
   <si>
-    <t>service_charge</t>
-  </si>
-  <si>
     <t>contact_name</t>
   </si>
   <si>
@@ -310,9 +298,6 @@
     <t>amount</t>
   </si>
   <si>
-    <t>order_detail_taxs</t>
-  </si>
-  <si>
     <t>total_due_khr</t>
   </si>
   <si>
@@ -326,6 +311,45 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>order_taxs</t>
+  </si>
+  <si>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>root_name</t>
+  </si>
+  <si>
+    <t>permissions (array of root_name)</t>
+  </si>
+  <si>
+    <t>payment_type_id</t>
+  </si>
+  <si>
+    <t>payment_types</t>
+  </si>
+  <si>
+    <t>Customer Invoice Mgn</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>direct_bill</t>
+  </si>
+  <si>
+    <t>customer_payments</t>
+  </si>
+  <si>
+    <t>payment_type</t>
+  </si>
+  <si>
+    <t>customer_deposit</t>
   </si>
 </sst>
 </file>
@@ -727,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,12 +767,12 @@
     <col min="9" max="9" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
@@ -758,8 +782,11 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="C6" s="4" t="s">
         <v>0</v>
@@ -767,8 +794,11 @@
       <c r="E6" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="C7" t="s">
         <v>4</v>
@@ -776,8 +806,11 @@
       <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="C8" t="s">
         <v>7</v>
@@ -786,7 +819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="C9" t="s">
         <v>5</v>
@@ -795,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="C10" t="s">
         <v>25</v>
@@ -804,21 +837,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="E11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>0</v>
       </c>
@@ -929,7 +962,7 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
         <v>25</v>
@@ -937,25 +970,35 @@
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,25 +1016,25 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,7 +1063,7 @@
         <v>30</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -1053,10 +1096,10 @@
         <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -1083,7 +1126,7 @@
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="E73" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,7 +1141,7 @@
         <v>32</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -1125,7 +1168,7 @@
         <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -1134,16 +1177,16 @@
         <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="E80" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G80" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -1151,6 +1194,9 @@
       <c r="E81" t="s">
         <v>11</v>
       </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
@@ -1164,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -1182,7 +1228,7 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -1206,10 +1252,10 @@
         <v>42</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -1230,10 +1276,10 @@
         <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G92" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -1254,10 +1300,10 @@
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G94" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -1266,96 +1312,102 @@
         <v>44</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>96</v>
+      </c>
+      <c r="G95" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
+      <c r="C97" t="s">
+        <v>48</v>
+      </c>
       <c r="E97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="C98" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="E98" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="C99" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="C100" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="C101" t="s">
-        <v>95</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
-      <c r="C102" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
-      <c r="E103" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
-      <c r="E104" t="s">
-        <v>92</v>
+      <c r="C104" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
-      <c r="E105" t="s">
-        <v>93</v>
+      <c r="C105" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
+      <c r="C106" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
+      <c r="C107" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
+      <c r="C108" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -1370,10 +1422,10 @@
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="C112" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -1388,7 +1440,7 @@
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="C114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E114" t="s">
         <v>32</v>
@@ -1397,7 +1449,7 @@
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="C115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E115" t="s">
         <v>33</v>
@@ -1432,13 +1484,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,10 +1514,10 @@
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="C127" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E127" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -1477,13 +1529,13 @@
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="C129" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="C130" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -1495,7 +1547,7 @@
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="E132" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -1507,7 +1559,7 @@
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="E134" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,10 +1571,10 @@
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="C136" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E136" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -1538,10 +1590,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -1559,13 +1611,13 @@
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="C144" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="C145" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -1579,10 +1631,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -1600,13 +1652,13 @@
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="C155" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="C156" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -1621,20 +1673,101 @@
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
     </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="10"/>
+      <c r="C172" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="10"/>
+      <c r="C173" t="s">
+        <v>46</v>
+      </c>
+      <c r="E173" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="10"/>
+      <c r="C174" t="s">
+        <v>89</v>
+      </c>
+      <c r="E174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="10"/>
+      <c r="C175" t="s">
+        <v>106</v>
+      </c>
+      <c r="E175" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="10"/>
+      <c r="C176" t="s">
+        <v>80</v>
+      </c>
+      <c r="E176" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="10"/>
+      <c r="C177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="10"/>
+      <c r="C178" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="10"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="10"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A152:A163"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="A53:A64"/>
+    <mergeCell ref="A171:A182"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/pos_restaurent.xlsx
+++ b/doc/pos_restaurent.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>symbol ($, ៛​)</t>
-  </si>
-  <si>
-    <t>bid</t>
   </si>
   <si>
     <t>code (e.g. KHR, USD, THB)</t>
@@ -130,15 +127,9 @@
     <t>price</t>
   </si>
   <si>
-    <t>expiry_date</t>
-  </si>
-  <si>
     <t>price_out</t>
   </si>
   <si>
-    <t>price_in</t>
-  </si>
-  <si>
     <t>min_qty</t>
   </si>
   <si>
@@ -298,9 +289,6 @@
     <t>amount</t>
   </si>
   <si>
-    <t>total_due_khr</t>
-  </si>
-  <si>
     <t>calulate_order</t>
   </si>
   <si>
@@ -350,6 +338,36 @@
   </si>
   <si>
     <t>customer_deposit</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>stock_id</t>
+  </si>
+  <si>
+    <t>stock_details</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t>exchange_rate</t>
+  </si>
+  <si>
+    <t>is_default</t>
   </si>
 </sst>
 </file>
@@ -751,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,25 +783,26 @@
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -804,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -813,10 +832,10 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -825,13 +844,13 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -839,21 +858,35 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
@@ -863,12 +896,17 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
@@ -878,7 +916,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
@@ -888,20 +926,20 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
@@ -922,83 +960,83 @@
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1016,25 +1054,25 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1052,21 +1090,27 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="C68" s="3" t="s">
         <v>0</v>
@@ -1077,131 +1121,140 @@
       <c r="G68" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="K71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E72" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="E73" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="E74" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="E77" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="G77" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
-      <c r="E79" t="s">
-        <v>38</v>
-      </c>
       <c r="G79" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
-      <c r="E80" t="s">
-        <v>74</v>
-      </c>
       <c r="G80" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
-      <c r="E81" t="s">
-        <v>11</v>
-      </c>
       <c r="G81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="C82" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -1210,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="C84" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>0</v>
@@ -1225,37 +1278,37 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G90" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -1273,95 +1326,92 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="C93" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G94" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="C95" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E95" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G95" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="C97" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E98" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="C99" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="C100" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
-      <c r="C101" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
@@ -1372,7 +1422,7 @@
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="C104" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -1384,30 +1434,30 @@
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="C107" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="C108" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,37 +1472,37 @@
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="C112" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E112" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="C114" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="C115" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -1460,6 +1510,9 @@
       <c r="C116" t="s">
         <v>3</v>
       </c>
+      <c r="E116" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
@@ -1484,13 +1537,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -1514,40 +1567,40 @@
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="C127" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E127" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="C129" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="C130" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="E132" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -1559,7 +1612,7 @@
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="E134" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -1571,10 +1624,10 @@
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="C136" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E136" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -1590,10 +1643,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,66 +1664,81 @@
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="C144" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="C145" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="C153" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="C154" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="C155" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E155" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="C156" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -1684,13 +1752,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E171" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -1705,16 +1773,16 @@
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="C173" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E173" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="C174" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E174" t="s">
         <v>3</v>
@@ -1723,19 +1791,19 @@
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="C175" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E175" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="C176" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E176" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -1747,7 +1815,7 @@
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="C178" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">

--- a/doc/pos_restaurent.xlsx
+++ b/doc/pos_restaurent.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -223,9 +223,6 @@
     <t>discounts</t>
   </si>
   <si>
-    <t>amount (%)</t>
-  </si>
-  <si>
     <t>outlet (array() of outlets_id)</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>order_taxs</t>
-  </si>
-  <si>
     <t>item_name</t>
   </si>
   <si>
@@ -368,6 +362,27 @@
   </si>
   <si>
     <t>is_default</t>
+  </si>
+  <si>
+    <t>item (array() of item_id)</t>
+  </si>
+  <si>
+    <t>is_fixed_amount</t>
+  </si>
+  <si>
+    <t>order_taxes</t>
+  </si>
+  <si>
+    <t>customer_type_id</t>
+  </si>
+  <si>
+    <t>customer_types</t>
+  </si>
+  <si>
+    <t>customer_payment</t>
+  </si>
+  <si>
+    <t>is_edited</t>
   </si>
 </sst>
 </file>
@@ -771,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +817,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -844,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -859,7 +874,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
@@ -870,7 +885,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -886,148 +901,172 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>20</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" t="s">
         <v>19</v>
       </c>
-      <c r="E33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>21</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>22</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>23</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>72</v>
       </c>
-      <c r="E37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1054,32 +1093,38 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
+      <c r="C60" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
@@ -1101,13 +1146,13 @@
         <v>29</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -1152,13 +1197,13 @@
         <v>28</v>
       </c>
       <c r="E70" t="s">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s">
         <v>76</v>
       </c>
-      <c r="G70" t="s">
-        <v>77</v>
-      </c>
       <c r="K70" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -1188,7 +1233,7 @@
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="E73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -1203,7 +1248,7 @@
         <v>24</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -1218,7 +1263,7 @@
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="E77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G77" t="s">
         <v>1</v>
@@ -1230,19 +1275,19 @@
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="G79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="G80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -1263,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -1281,7 +1326,7 @@
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -1308,7 +1353,7 @@
         <v>42</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -1332,7 +1377,7 @@
         <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -1353,22 +1398,22 @@
         <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="C95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -1392,7 +1437,7 @@
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="C98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E98" t="s">
         <v>45</v>
@@ -1401,7 +1446,10 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="E99" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,6 +1460,9 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
+      <c r="C101" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
@@ -1422,7 +1473,7 @@
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="C104" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -1440,13 +1491,13 @@
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="C107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="C108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -1493,7 +1544,7 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,7 +1621,7 @@
         <v>54</v>
       </c>
       <c r="E127" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -1627,7 +1678,7 @@
         <v>58</v>
       </c>
       <c r="E136" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -1643,10 +1694,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -1664,13 +1715,13 @@
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="C144" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="C145" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -1684,13 +1735,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -1708,22 +1759,22 @@
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="C155" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E155" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="C156" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E156" t="s">
         <v>10</v>
@@ -1752,13 +1803,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C171" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -1776,13 +1827,13 @@
         <v>43</v>
       </c>
       <c r="E173" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="C174" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E174" t="s">
         <v>3</v>
@@ -1791,19 +1842,19 @@
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="C175" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E175" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="C176" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E176" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">

--- a/doc/pos_restaurent.xlsx
+++ b/doc/pos_restaurent.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -172,9 +172,6 @@
     <t>purchase</t>
   </si>
   <si>
-    <t>supplier</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -382,7 +379,52 @@
     <t>customer_payment</t>
   </si>
   <si>
-    <t>is_edited</t>
+    <t>note</t>
+  </si>
+  <si>
+    <t>received_cash_amount</t>
+  </si>
+  <si>
+    <t>received_cash_currency</t>
+  </si>
+  <si>
+    <t>is_void</t>
+  </si>
+  <si>
+    <t>void_date</t>
+  </si>
+  <si>
+    <t>customer_debit_credit</t>
+  </si>
+  <si>
+    <t>amount (- means credit | + means bebit)</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>ended_by</t>
+  </si>
+  <si>
+    <t>started_by</t>
+  </si>
+  <si>
+    <t>service_charge</t>
+  </si>
+  <si>
+    <t>updated_date</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>eod</t>
+  </si>
+  <si>
+    <t>supplier_id</t>
+  </si>
+  <si>
+    <t>moved_to</t>
   </si>
 </sst>
 </file>
@@ -784,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +859,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -859,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -874,7 +916,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
@@ -885,7 +927,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -901,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
@@ -916,7 +958,7 @@
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
@@ -941,11 +983,16 @@
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -954,7 +1001,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>25</v>
@@ -992,7 +1039,7 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -1019,7 +1066,7 @@
         <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -1027,7 +1074,7 @@
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
         <v>0</v>
@@ -1038,7 +1085,7 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
@@ -1046,15 +1093,15 @@
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E40" t="s">
         <v>3</v>
@@ -1062,77 +1109,108 @@
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E46" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="C54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="C55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="C56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="C57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="C58" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="C59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="C60" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="C61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -1146,13 +1224,13 @@
         <v>29</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -1197,13 +1275,13 @@
         <v>28</v>
       </c>
       <c r="E70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" t="s">
         <v>75</v>
       </c>
-      <c r="G70" t="s">
-        <v>76</v>
-      </c>
       <c r="K70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -1233,7 +1311,7 @@
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="E73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -1248,7 +1326,7 @@
         <v>24</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -1263,7 +1341,7 @@
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="E77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G77" t="s">
         <v>1</v>
@@ -1275,23 +1353,32 @@
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
+      <c r="E79" t="s">
+        <v>130</v>
+      </c>
       <c r="G79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
+      <c r="E80" t="s">
+        <v>129</v>
+      </c>
       <c r="G80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
+      <c r="E81" t="s">
+        <v>128</v>
+      </c>
       <c r="G81" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -1326,7 +1413,7 @@
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -1353,7 +1440,7 @@
         <v>42</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -1377,7 +1464,7 @@
         <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -1398,22 +1485,22 @@
         <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="C95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G95" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -1428,7 +1515,7 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="C97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E97" t="s">
         <v>44</v>
@@ -1437,7 +1524,7 @@
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="C98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E98" t="s">
         <v>45</v>
@@ -1446,354 +1533,381 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="C99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E99" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="C100" t="s">
-        <v>3</v>
+        <v>127</v>
+      </c>
+      <c r="E100" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="C101" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
+      <c r="C102" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
+      <c r="C103" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
-      <c r="C104" s="1" t="s">
-        <v>114</v>
+      <c r="C104" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
-      <c r="C105" s="3" t="s">
-        <v>0</v>
+      <c r="C105" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="C106" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="C107" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
-      <c r="C108" t="s">
-        <v>85</v>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
+      <c r="C109" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="9"/>
+      <c r="C110" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="9"/>
+      <c r="C111" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="9"/>
+      <c r="C112" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="9"/>
+      <c r="C113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="C111" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-      <c r="C112" t="s">
-        <v>48</v>
-      </c>
-      <c r="E112" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="C113" t="s">
-        <v>24</v>
-      </c>
-      <c r="E113" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
-      <c r="C114" t="s">
+      <c r="E115" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E114" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
-      <c r="C115" t="s">
-        <v>49</v>
-      </c>
-      <c r="E115" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
-      <c r="C116" t="s">
-        <v>3</v>
-      </c>
-      <c r="E116" t="s">
-        <v>32</v>
+      <c r="C116" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
+      <c r="C117" t="s">
+        <v>131</v>
+      </c>
+      <c r="E117" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
+      <c r="C118" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
+      <c r="C119" t="s">
+        <v>49</v>
+      </c>
+      <c r="E119" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
+      <c r="C120" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
+      <c r="C121" t="s">
+        <v>130</v>
+      </c>
+      <c r="E121" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="7"/>
+      <c r="A122" s="8"/>
+      <c r="C122" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="7"/>
+      <c r="A123" s="8"/>
+      <c r="C123" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A124" s="8"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
-      <c r="C125" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
-      <c r="C126" t="s">
-        <v>1</v>
-      </c>
-      <c r="E126" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
-      <c r="C127" t="s">
-        <v>54</v>
-      </c>
-      <c r="E127" t="s">
-        <v>92</v>
-      </c>
+      <c r="A127" s="7"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
-      <c r="C128" t="s">
-        <v>22</v>
-      </c>
+      <c r="A128" s="7"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
-      <c r="C129" t="s">
-        <v>55</v>
+      <c r="A129" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
-      <c r="C130" t="s">
-        <v>61</v>
+      <c r="C130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
-      <c r="E132" s="1" t="s">
-        <v>56</v>
+      <c r="C132" t="s">
+        <v>53</v>
+      </c>
+      <c r="E132" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
-      <c r="E133" s="3" t="s">
-        <v>0</v>
+      <c r="C133" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
-      <c r="E134" t="s">
-        <v>59</v>
+      <c r="C134" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
-      <c r="E135" t="s">
-        <v>1</v>
+      <c r="C135" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
-      <c r="C136" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E136" t="s">
-        <v>91</v>
+      <c r="C136" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
-      <c r="C137" s="3" t="s">
-        <v>0</v>
+      <c r="E137" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
+      <c r="A138" s="8"/>
+      <c r="E138" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="E139" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="E140" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="A141" s="8"/>
       <c r="C141" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="E141" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
-      <c r="C142" t="s">
+      <c r="C142" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
       <c r="C143" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
-      <c r="C144" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
-      <c r="C145" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
+      <c r="A146" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
+      <c r="C147" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="8"/>
+      <c r="C149" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="8"/>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="8"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C152" s="1" t="s">
+      <c r="A152" s="8"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="C153" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E153" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
-      <c r="C154" t="s">
-        <v>1</v>
-      </c>
-      <c r="E154" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="C155" t="s">
-        <v>89</v>
-      </c>
-      <c r="E155" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="C156" t="s">
-        <v>76</v>
-      </c>
-      <c r="E156" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
+      <c r="C157" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
+      <c r="C158" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
+      <c r="C160" t="s">
+        <v>88</v>
+      </c>
+      <c r="E160" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
+      <c r="C161" t="s">
+        <v>75</v>
+      </c>
+      <c r="E161" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
@@ -1801,92 +1915,137 @@
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
-      <c r="C172" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E172" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
-      <c r="C173" t="s">
-        <v>43</v>
-      </c>
-      <c r="E173" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
-      <c r="C174" t="s">
-        <v>85</v>
-      </c>
-      <c r="E174" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="10"/>
-      <c r="C175" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="10"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="10"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="10"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="10"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="10"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E175" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
-      <c r="C176" t="s">
-        <v>76</v>
-      </c>
-      <c r="E176" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
-      <c r="C177" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="C178" t="s">
+        <v>43</v>
+      </c>
+      <c r="E178" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="10"/>
+      <c r="C179" t="s">
+        <v>84</v>
+      </c>
+      <c r="E179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
+      <c r="C180" t="s">
+        <v>99</v>
+      </c>
+      <c r="E180" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="10"/>
+      <c r="C181" t="s">
+        <v>75</v>
+      </c>
+      <c r="E181" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="10"/>
+      <c r="C182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="10"/>
+      <c r="C183" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="10"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="10"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="10"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="10"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="10"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="10"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C191" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C192" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A152:A163"/>
+    <mergeCell ref="A157:A168"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="A53:A64"/>
-    <mergeCell ref="A171:A182"/>
+    <mergeCell ref="A176:A187"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/pos_restaurent.xlsx
+++ b/doc/pos_restaurent.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -127,9 +127,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>price_out</t>
-  </si>
-  <si>
     <t>min_qty</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>check_number</t>
-  </si>
-  <si>
     <t>purchase_details</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>order_detail_id</t>
   </si>
   <si>
-    <t>item_ids</t>
-  </si>
-  <si>
     <t>item_set_order_details</t>
   </si>
   <si>
@@ -425,6 +416,24 @@
   </si>
   <si>
     <t>moved_to</t>
+  </si>
+  <si>
+    <t>item_ids (array() of item_id)</t>
+  </si>
+  <si>
+    <t>ref_number</t>
+  </si>
+  <si>
+    <t>merged_to</t>
+  </si>
+  <si>
+    <t>total_person</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>updated_by</t>
   </si>
 </sst>
 </file>
@@ -492,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -512,6 +521,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,14 +863,14 @@
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -901,7 +912,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -916,7 +927,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
@@ -927,7 +938,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
@@ -958,7 +969,7 @@
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
@@ -983,7 +994,7 @@
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
@@ -1001,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>25</v>
@@ -1039,7 +1050,7 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -1066,7 +1077,7 @@
         <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -1074,7 +1085,7 @@
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
         <v>0</v>
@@ -1085,23 +1096,23 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
         <v>3</v>
@@ -1109,10 +1120,10 @@
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
@@ -1120,12 +1131,22 @@
         <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E46" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
@@ -1135,7 +1156,7 @@
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1145,15 +1166,15 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1171,37 +1192,37 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1224,13 +1245,13 @@
         <v>29</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -1266,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -1275,13 +1296,13 @@
         <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K70" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -1311,13 +1332,13 @@
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="E73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -1326,13 +1347,13 @@
         <v>24</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>0</v>
@@ -1341,7 +1362,7 @@
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="E77" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G77" t="s">
         <v>1</v>
@@ -1353,31 +1374,31 @@
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="E79" t="s">
+        <v>127</v>
+      </c>
+      <c r="G79" t="s">
         <v>130</v>
-      </c>
-      <c r="G79" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="E80" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="E81" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G81" t="s">
         <v>10</v>
@@ -1386,7 +1407,7 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="C82" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -1395,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>0</v>
@@ -1413,12 +1434,12 @@
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
         <v>13</v>
@@ -1429,24 +1450,29 @@
         <v>32</v>
       </c>
     </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
-      <c r="C91" s="3" t="s">
-        <v>0</v>
+      <c r="C91" t="s">
+        <v>132</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>0</v>
@@ -1461,52 +1487,52 @@
         <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="C93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="C94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E94" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G94" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="C95" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E95" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E96" t="s">
         <v>31</v>
@@ -1515,73 +1541,73 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="C97" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="C98" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E99" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="C100" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E100" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="C101" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="C102" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="C103" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="C104" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="C105" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="C106" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -1592,46 +1618,49 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
+      <c r="C108" t="s">
+        <v>114</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
-      <c r="C109" s="1" t="s">
-        <v>113</v>
+      <c r="E109" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
-      <c r="C110" s="3" t="s">
-        <v>0</v>
+      <c r="E110" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
-      <c r="C111" t="s">
-        <v>43</v>
+      <c r="E111" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
-      <c r="C112" t="s">
-        <v>83</v>
+      <c r="E112" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
-      <c r="C113" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -1646,10 +1675,10 @@
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="C117" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E117" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -1658,22 +1687,22 @@
         <v>24</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="C119" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="E119" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="C120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E120" t="s">
         <v>31</v>
@@ -1682,7 +1711,7 @@
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="C121" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E121" t="s">
         <v>32</v>
@@ -1691,17 +1720,20 @@
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="C122" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="C123" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
+      <c r="C124" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
@@ -1717,13 +1749,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -1747,10 +1779,10 @@
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="C132" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -1762,13 +1794,13 @@
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="C134" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="C135" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -1780,7 +1812,7 @@
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="E137" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -1792,7 +1824,7 @@
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="E139" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -1804,10 +1836,10 @@
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="C141" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E141" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,10 +1855,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -1844,13 +1876,13 @@
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="C149" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="C150" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -1864,13 +1896,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -1888,22 +1920,22 @@
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="C160" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E160" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="C161" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E161" t="s">
         <v>10</v>
@@ -1932,13 +1964,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -1953,16 +1985,16 @@
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="C178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E178" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="C179" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E179" t="s">
         <v>3</v>
@@ -1971,19 +2003,19 @@
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="C180" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E180" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="C181" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E181" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -2012,7 +2044,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C191" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -2027,12 +2059,12 @@
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
